--- a/SourceCode/2023/Dec2023/Nazeer/Analyze the RE-Framework/Data/Config.xlsx
+++ b/SourceCode/2023/Dec2023/Nazeer/Analyze the RE-Framework/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazee\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2023\Dec2023\Nazeer\Analyze the RE-Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA9164-F86B-4CDE-89EC-2640FA7E9891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1139DE-97D0-4F52-B04D-2473E7C0679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1670,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -1681,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
